--- a/data/Oil_data.xlsx
+++ b/data/Oil_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigve Borgmo\Master\dynamic-factor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EB0FB4-334A-4AD0-9670-B1D7B3BCD000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5900856D-B8E8-4BCE-9D1A-E32EBCCFC7E3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata" sheetId="1" r:id="rId1"/>
@@ -50551,8 +50551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5D33B7-71E3-4F4A-8C77-9425A365C89E}">
   <dimension ref="A1:AG150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -50809,7 +50809,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -71883,7 +71883,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="topRight" activeCell="I18" sqref="I18"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -72025,7 +72025,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="11">
         <v>0</v>
@@ -79863,8 +79863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AG150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -80121,7 +80121,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
